--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>7.891195101953174e-42</v>
+        <v>4.136462225392568e-42</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>7.789019069225225e-42</v>
+        <v>4.126070383953062e-42</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>7.691518634050037e-42</v>
+        <v>4.116179384815201e-42</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>7.598683790809901e-42</v>
+        <v>4.106928848351566e-42</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>7.510504533887109e-42</v>
+        <v>4.098458394934738e-42</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>7.426970857663952e-42</v>
+        <v>4.090907644937295e-42</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>7.348072756522728e-42</v>
+        <v>4.084416218731823e-42</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>7.273800224845722e-42</v>
+        <v>4.079123736690896e-42</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>7.204143257015231e-42</v>
+        <v>4.075169819187099e-42</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>7.139091847413548e-42</v>
+        <v>4.072694086593011e-42</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>7.078635990422989e-42</v>
+        <v>4.071836159281213e-42</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>7.022765680425794e-42</v>
+        <v>4.072735657624285e-42</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>6.971470911804283e-42</v>
+        <v>4.075532201994808e-42</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>6.924741678940746e-42</v>
+        <v>4.080365412765363e-42</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>6.882567976217476e-42</v>
+        <v>4.087374910308528e-42</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>6.844939798016773e-42</v>
+        <v>4.096700314996889e-42</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>6.811847138720917e-42</v>
+        <v>4.108481247203021e-42</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>6.783279992712209e-42</v>
+        <v>4.122857327299508e-42</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>6.75922835437294e-42</v>
+        <v>4.139968175658929e-42</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>6.739682218085402e-42</v>
+        <v>4.159953412653865e-42</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>6.724631578231888e-42</v>
+        <v>4.182952658656898e-42</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>6.714066429194687e-42</v>
+        <v>4.209105534040606e-42</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>6.707976765356097e-42</v>
+        <v>4.238551659177572e-42</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>6.706352581098405e-42</v>
+        <v>4.271430654440374e-42</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>6.709183870803906e-42</v>
+        <v>4.307882140201594e-42</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>6.716460628854895e-42</v>
+        <v>4.348045736833814e-42</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>6.728172849633659e-42</v>
+        <v>4.392061064709613e-42</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>6.744310527522495e-42</v>
+        <v>4.440067744201572e-42</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>6.764863656903681e-42</v>
+        <v>4.492205395682244e-42</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>6.789822232159533e-42</v>
+        <v>4.548613639524263e-42</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>6.81917624767233e-42</v>
+        <v>4.609432096100182e-42</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>6.852915697824366e-42</v>
+        <v>4.674800385782583e-42</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>6.891030576997937e-42</v>
+        <v>4.744858128944048e-42</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>6.933510879575333e-42</v>
+        <v>4.819744945957155e-42</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>6.980346599938844e-42</v>
+        <v>4.899600457194486e-42</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>7.031527732470767e-42</v>
+        <v>4.984564283028622e-42</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>7.087044271553392e-42</v>
+        <v>5.074776043832144e-42</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>7.146886211569008e-42</v>
+        <v>5.170375359977629e-42</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>7.211043546899914e-42</v>
+        <v>5.271501851837661e-42</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>7.2795062719284e-42</v>
+        <v>5.378295139784822e-42</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>7.352264381036755e-42</v>
+        <v>5.490894844191689e-42</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>7.429307868607276e-42</v>
+        <v>5.609440585430844e-42</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>7.510626729022255e-42</v>
+        <v>5.734071983874868e-42</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>7.596210956663977e-42</v>
+        <v>5.864928659896338e-42</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>7.686050545914745e-42</v>
+        <v>6.00215023386784e-42</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>7.780135491156849e-42</v>
+        <v>6.145876326161954e-42</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>7.878455786772576e-42</v>
+        <v>6.296246557151258e-42</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>7.981005653253044e-42</v>
+        <v>6.453403801511896e-42</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>8.088809100358828e-42</v>
+        <v>6.618283920345973e-42</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>8.205257231330968e-42</v>
+        <v>6.793645548651432e-42</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>8.334072487976291e-42</v>
+        <v>6.982502467787574e-42</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>8.478977312101624e-42</v>
+        <v>7.1878684591137e-42</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>8.643694145513796e-42</v>
+        <v>7.412757303989108e-42</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>8.831945430019645e-42</v>
+        <v>7.660182783773108e-42</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>9.047453607425989e-42</v>
+        <v>7.933158679824993e-42</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>9.293941119539664e-42</v>
+        <v>8.234698773504071e-42</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>9.575130408167498e-42</v>
+        <v>8.567816846169643e-42</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>9.894743915116321e-42</v>
+        <v>8.93552667918101e-42</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>1.025650408219296e-41</v>
+        <v>9.340842053897474e-42</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.066413335120425e-41</v>
+        <v>9.786776751678336e-42</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>1.112135416395702e-41</v>
+        <v>1.02763445538829e-41</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>1.163188896225809e-41</v>
+        <v>1.081255924187046e-41</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>1.21994601879143e-41</v>
+        <v>1.139843459700034e-41</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>1.282779028273247e-41</v>
+        <v>1.203698440063181e-41</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>1.352060168851944e-41</v>
+        <v>1.27312224341242e-41</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>1.428161684708165e-41</v>
+        <v>1.348416247883642e-41</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.511520082634972e-41</v>
+        <v>1.429959409421826e-41</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>1.603260508957224e-41</v>
+        <v>1.518962009436882e-41</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>1.704926142867575e-41</v>
+        <v>1.617138978508735e-41</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>1.818066040965723e-41</v>
+        <v>1.726212342421576e-41</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>1.94422925985137e-41</v>
+        <v>1.847904126959599e-41</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>2.084964856124212e-41</v>
+        <v>1.983936357906995e-41</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>2.241821886383948e-41</v>
+        <v>2.136031061047954e-41</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>2.416349407230278e-41</v>
+        <v>2.305910262166668e-41</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>2.6100964752629e-41</v>
+        <v>2.495295987047329e-41</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>2.824612147081515e-41</v>
+        <v>2.705910261474129e-41</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>3.061445479285817e-41</v>
+        <v>2.939475111231258e-41</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>3.32214552847551e-41</v>
+        <v>3.197712562102908e-41</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>3.608261351250289e-41</v>
+        <v>3.482344639873272e-41</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>3.921342004209854e-41</v>
+        <v>3.795093370326539e-41</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>4.26243508036277e-41</v>
+        <v>4.137162263524818e-41</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>4.626916060676137e-41</v>
+        <v>4.503889838884998e-41</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>5.006574379112472e-41</v>
+        <v>4.886906626281187e-41</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>5.393142914146395e-41</v>
+        <v>5.277784676945858e-41</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>5.778354544252356e-41</v>
+        <v>5.668096042111301e-41</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>6.153942147905358e-41</v>
+        <v>6.049412773010367e-41</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>6.511638603579838e-41</v>
+        <v>6.413306920875341e-41</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>6.843176789750422e-41</v>
+        <v>6.751350536938697e-41</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>7.140289584891741e-41</v>
+        <v>7.055115672432907e-41</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>7.394709867478419e-41</v>
+        <v>7.316174378590444e-41</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>7.598170515985087e-41</v>
+        <v>7.526098706643784e-41</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>7.742404408886366e-41</v>
+        <v>7.676460707825397e-41</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>7.819144424656891e-41</v>
+        <v>7.758832433367761e-41</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>7.820123441771282e-41</v>
+        <v>7.764785934503344e-41</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>7.737910820692209e-41</v>
+        <v>7.686741551984254e-41</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>7.575072308643403e-41</v>
+        <v>7.527257119353686e-41</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>7.340754624900871e-41</v>
+        <v>7.295564337256293e-41</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>7.044220242839166e-41</v>
+        <v>7.001012294385798e-41</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>6.69473163583284e-41</v>
+        <v>6.652950079435928e-41</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>6.301551277256452e-41</v>
+        <v>6.260726781100405e-41</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>5.873941640484556e-41</v>
+        <v>5.833691488072954e-41</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>5.421165198891709e-41</v>
+        <v>5.381193289047298e-41</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>4.952484425852691e-41</v>
+        <v>4.912581272717391e-41</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>4.477161794741603e-41</v>
+        <v>4.437204527776499e-41</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>4.004459778933224e-41</v>
+        <v>3.964412142918572e-41</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>3.543640851802108e-41</v>
+        <v>3.503553206837332e-41</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>3.103967486722811e-41</v>
+        <v>3.063976808226503e-41</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>2.694702157069889e-41</v>
+        <v>2.655032035779812e-41</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>2.325107336217895e-41</v>
+        <v>2.286067978190981e-41</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>2.003770101273685e-41</v>
+        <v>1.965742337879816e-41</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>1.729791208323597e-41</v>
+        <v>1.693001907601383e-41</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>1.49527329095409e-41</v>
+        <v>1.459629677065054e-41</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.292155707658104e-41</v>
+        <v>1.257241495348947e-41</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.113109297642409e-41</v>
+        <v>1.078250591091658e-41</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>9.550269675641541e-42</v>
+        <v>9.196726249907991e-42</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>8.163131429428778e-42</v>
+        <v>7.801709488223084e-42</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>6.953741688014075e-42</v>
+        <v>6.584110067928063e-42</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>5.906182240003041e-42</v>
+        <v>5.530587077296097e-42</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>5.005947941065094e-42</v>
+        <v>4.628157618940087e-42</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>4.240925632388418e-42</v>
+        <v>3.864444828362708e-42</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>3.599233446477485e-42</v>
+        <v>3.227130440980263e-42</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>3.068989515837001e-42</v>
+        <v>2.70389619220928e-42</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>2.638311972970929e-42</v>
+        <v>2.282423817465558e-42</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>2.295318950384025e-42</v>
+        <v>1.950395052165679e-42</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.028128580580763e-42</v>
+        <v>1.695491631725943e-42</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>1.824858996065616e-42</v>
+        <v>1.505395291562653e-42</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>1.673628329343056e-42</v>
+        <v>1.367787767092108e-42</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>1.562554712917556e-42</v>
+        <v>1.27035079373061e-42</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>1.47975627929359e-42</v>
+        <v>1.200766106894461e-42</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>1.413351160975631e-42</v>
+        <v>1.146715441999961e-42</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>1.351457490468151e-42</v>
+        <v>1.095880534463412e-42</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>1.282196824616831e-42</v>
+        <v>1.035946828454506e-42</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>1.198428744437348e-42</v>
+        <v>9.597313137889658e-43</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>1.107153809279112e-42</v>
+        <v>8.753664521322649e-43</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.017999141715908e-42</v>
+        <v>7.938294202873408e-43</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>9.405918643215193e-43</v>
+        <v>7.260973950571302e-43</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>8.84263510731452e-43</v>
+        <v>6.827895253764467e-43</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>8.521510347662851e-43</v>
+        <v>6.670218640968095e-43</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>8.415148537818689e-43</v>
+        <v>6.747925934394175e-43</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>8.493834602653858e-43</v>
+        <v>7.018189799498702e-43</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>8.727853467040358e-43</v>
+        <v>7.438182901738126e-43</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>9.087490055850092e-43</v>
+        <v>7.965077906568522e-43</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>9.543029293954971e-43</v>
+        <v>8.556047479446062e-43</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.00647561062269e-42</v>
+        <v>9.168264285826909e-43</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.062295541753779e-42</v>
+        <v>9.758900991167238e-43</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>1.118791643285701e-42</v>
+        <v>1.028513755336442e-42</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>1.173931461091686e-42</v>
+        <v>1.072014625389338e-42</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>1.228611411747181e-42</v>
+        <v>1.108700154944164e-42</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>1.284297592801568e-42</v>
+        <v>1.141848413594961e-42</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>1.342456101804231e-42</v>
+        <v>1.174737470935776e-42</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>1.404553036304554e-42</v>
+        <v>1.210645396560652e-42</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>1.472054493851918e-42</v>
+        <v>1.252850260063634e-42</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>1.546426571995707e-42</v>
+        <v>1.304630131038765e-42</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>1.629135368285305e-42</v>
+        <v>1.369263079080091e-42</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>1.721646980270093e-42</v>
+        <v>1.450027173781655e-42</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>1.825602773980334e-42</v>
+        <v>1.550096098146082e-42</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>1.943809300307158e-42</v>
+        <v>1.671949573116235e-42</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>2.079548438261836e-42</v>
+        <v>1.817784223199045e-42</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>2.236103469003484e-42</v>
+        <v>1.989795837808714e-42</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>2.416757673691124e-42</v>
+        <v>2.190180206359337e-42</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>2.624794333484049e-42</v>
+        <v>2.421133118265309e-42</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>2.863496729541293e-42</v>
+        <v>2.68485036294074e-42</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>3.136148143021973e-42</v>
+        <v>2.98352772979983e-42</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>3.446031855085206e-42</v>
+        <v>3.31936100825678e-42</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>3.79643114689011e-42</v>
+        <v>3.694545987725794e-42</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>4.1906292995958e-42</v>
+        <v>4.111278457621068e-42</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>4.631909594361395e-42</v>
+        <v>4.571754207356804e-42</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>5.12355531234601e-42</v>
+        <v>5.078169026347203e-42</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>5.668846228366769e-42</v>
+        <v>5.632715543111481e-42</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>6.266210634251942e-42</v>
+        <v>6.233212874322713e-42</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>6.899597217384923e-42</v>
+        <v>6.86442707190807e-42</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>7.550265205081995e-42</v>
+        <v>7.508699695017929e-42</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>8.199473824659438e-42</v>
+        <v>8.148372302802662e-42</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>8.82848230343354e-42</v>
+        <v>8.765786454412649e-42</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>9.418549868720586e-42</v>
+        <v>9.343283708998266e-42</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>9.950935747836859e-42</v>
+        <v>9.863205625709886e-42</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>1.040689916809845e-41</v>
+        <v>1.03078937636977e-41</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>1.076769935682208e-41</v>
+        <v>1.065968968211251e-41</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>1.101486116579068e-41</v>
+        <v>1.090118477084005e-41</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>1.114147392078702e-41</v>
+        <v>1.102584728318131e-41</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>1.115640804450825e-41</v>
+        <v>1.104198824312303e-41</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>1.106966854060055e-41</v>
+        <v>1.095898579469703e-41</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>1.089126041271006e-41</v>
+        <v>1.078621808193511e-41</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>1.063118866448297e-41</v>
+        <v>1.053306324886907e-41</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>1.029945829956542e-41</v>
+        <v>1.020889943953072e-41</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>9.906074321603588e-42</v>
+        <v>9.823104797951875e-42</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>9.461041734243627e-42</v>
+        <v>9.385057468164332e-42</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>8.97436505210312e-42</v>
+        <v>8.904135441068781e-42</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>8.455738024044983e-42</v>
+        <v>8.389619396471789e-42</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>7.914011364186341e-42</v>
+        <v>7.850526031960935e-42</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>7.357894207416684e-42</v>
+        <v>7.29582771195857e-42</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>6.796095688625514e-42</v>
+        <v>6.734496800887053e-42</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>6.237324942702336e-42</v>
+        <v>6.175505663168742e-42</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>5.690291104536645e-42</v>
+        <v>5.627826663225995e-42</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>5.163703309017939e-42</v>
+        <v>5.100432165481168e-42</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>4.666270691035721e-42</v>
+        <v>4.602294534356619e-42</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>4.2067023854797e-42</v>
+        <v>4.142386134274917e-42</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>3.792292382505487e-42</v>
+        <v>3.728223777017265e-42</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>3.422229706636321e-42</v>
+        <v>3.358987880319588e-42</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>3.092822959706611e-42</v>
+        <v>3.030896191915236e-42</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>2.800377287197279e-42</v>
+        <v>2.740162904491685e-42</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>2.541197834589246e-42</v>
+        <v>2.483002210736409e-42</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>2.311589747363433e-42</v>
+        <v>2.255628303336884e-42</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>2.10785817100076e-42</v>
+        <v>2.054255374980586e-42</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.926308250982151e-42</v>
+        <v>1.875097618354989e-42</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.763245132788522e-42</v>
+        <v>1.714369226147566e-42</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>1.615019607111183e-42</v>
+        <v>1.568331517041713e-42</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>1.479366798287617e-42</v>
+        <v>1.434675052815762e-42</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>1.355622265844402e-42</v>
+        <v>1.312742750479909e-42</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>1.243210720109649e-42</v>
+        <v>1.201969570005129e-42</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>1.141556871411467e-42</v>
+        <v>1.101790471362394e-42</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>1.050085430077967e-42</v>
+        <v>1.01164041452268e-42</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>9.682211064372578e-43</v>
+        <v>9.309543594569601e-43</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>8.953886108174827e-43</v>
+        <v>8.591672661362406e-43</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>8.310126535466815e-43</v>
+        <v>7.957140945314256e-43</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>7.745179449530016e-43</v>
+        <v>7.400298046135261e-43</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>7.253291953645528e-43</v>
+        <v>6.915493563535164e-43</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>6.828711151094451e-43</v>
+        <v>6.497077097223696e-43</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>6.465684145157881e-43</v>
+        <v>6.139398246910597e-43</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>6.158458039116922e-43</v>
+        <v>5.836806612305608e-43</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>5.90127993625267e-43</v>
+        <v>5.583651793118465e-43</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>5.688396939846225e-43</v>
+        <v>5.374283389058907e-43</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>5.514056153178686e-43</v>
+        <v>5.203050999836671e-43</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>5.372504679531152e-43</v>
+        <v>5.064304225161496e-43</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>5.257989622184723e-43</v>
+        <v>4.95239266474312e-43</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>5.164758084420495e-43</v>
+        <v>4.861665918291278e-43</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>5.087057169519573e-43</v>
+        <v>4.786473585515715e-43</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>5.019133980763051e-43</v>
+        <v>4.721165266126162e-43</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.95523562143203e-43</v>
+        <v>4.660090559832361e-43</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.889609194807608e-43</v>
+        <v>4.59759906634405e-43</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.816501804170888e-43</v>
+        <v>4.528040385370967e-43</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.730160552802963e-43</v>
+        <v>4.445764116622847e-43</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.624832543984936e-43</v>
+        <v>4.345119859809432e-43</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.494764880997975e-43</v>
+        <v>4.220457214640525e-43</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.334269605275613e-43</v>
+        <v>4.066189797229204e-43</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.141934178373977e-43</v>
+        <v>3.880945957381158e-43</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.923200675796224e-43</v>
+        <v>3.670111362668293e-43</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.684128258921422e-43</v>
+        <v>3.439680007460316e-43</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.430776089128647e-43</v>
+        <v>3.195645886126942e-43</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.169203327796967e-43</v>
+        <v>2.944002993037881e-43</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.905469136305453e-43</v>
+        <v>2.69074532256284e-43</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.645632676033176e-43</v>
+        <v>2.441866869071532e-43</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.395753108359205e-43</v>
+        <v>2.203361626933665e-43</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.161889594662613e-43</v>
+        <v>1.981223590518953e-43</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>1.950101296322468e-43</v>
+        <v>1.781446754197101e-43</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.766447374717844e-43</v>
+        <v>1.610025112337824e-43</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.616986991227808e-43</v>
+        <v>1.47295265931083e-43</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.507779307231433e-43</v>
+        <v>1.376223389485829e-43</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.444826205973734e-43</v>
+        <v>1.325773902847998e-43</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.429890773610155e-43</v>
+        <v>1.323293399320741e-43</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>1.457657835764636e-43</v>
+        <v>1.363378452409297e-43</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>1.522139813219245e-43</v>
+        <v>1.439951866078517e-43</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>1.617349126756019e-43</v>
+        <v>1.546936444293205e-43</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>1.737298197156998e-43</v>
+        <v>1.678254991018172e-43</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>1.875999445204222e-43</v>
+        <v>1.827830310218231e-43</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>2.027465291679731e-43</v>
+        <v>1.989585205858192e-43</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>2.185708157365564e-43</v>
+        <v>2.157442481902868e-43</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>2.344740463043762e-43</v>
+        <v>2.325324942317071e-43</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>2.498574629496364e-43</v>
+        <v>2.487155391065613e-43</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>2.641223077505409e-43</v>
+        <v>2.636856632113304e-43</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>2.766698227852939e-43</v>
+        <v>2.768351469424958e-43</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>2.869012501320993e-43</v>
+        <v>2.875562706965387e-43</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>2.942329415648619e-43</v>
+        <v>2.952567612943769e-43</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>2.984688718587089e-43</v>
+        <v>2.99740606971907e-43</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>2.998243189674442e-43</v>
+        <v>3.012322652845803e-43</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>2.985344117969932e-43</v>
+        <v>2.999764871304811e-43</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>2.948342792532808e-43</v>
+        <v>2.962180234076934e-43</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>2.88959050242232e-43</v>
+        <v>2.902016250143012e-43</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>2.81143853669772e-43</v>
+        <v>2.821720428483889e-43</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>2.71623818441826e-43</v>
+        <v>2.723740278080407e-43</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>2.60634073464319e-43</v>
+        <v>2.610523307913405e-43</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>2.484097476431761e-43</v>
+        <v>2.484517026963726e-43</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>2.351859698843224e-43</v>
+        <v>2.34816894421221e-43</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>2.21197869093683e-43</v>
+        <v>2.203926568639701e-43</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>2.06680574177183e-43</v>
+        <v>2.054237409227037e-43</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.918692140407476e-43</v>
+        <v>1.901548974955063e-43</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>1.769989175903018e-43</v>
+        <v>1.74830877480462e-43</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>1.623048137317847e-43</v>
+        <v>1.596964317756692e-43</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.480220313710793e-43</v>
+        <v>1.449963112791687e-43</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.343856994141658e-43</v>
+        <v>1.309752668891013e-43</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>1.216309467669285e-43</v>
+        <v>1.178780495035094e-43</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>1.099760407487763e-43</v>
+        <v>1.059318190311075e-43</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>9.946331831937912e-44</v>
+        <v>9.518019458004977e-44</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>9.003047537535867e-44</v>
+        <v>8.555762760538119e-44</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>8.161382196748085e-44</v>
+        <v>7.699712376701367e-44</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>7.414966814651142e-44</v>
+        <v>6.94316887248592e-44</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>6.757432396321621e-44</v>
+        <v>6.279432813882969e-44</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>6.182409946836109e-44</v>
+        <v>5.701804766883712e-44</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>5.683530471271184e-44</v>
+        <v>5.203585297479345e-44</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>5.25442497470343e-44</v>
+        <v>4.77807497166106e-44</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>4.888724462209429e-44</v>
+        <v>4.418574355420056e-44</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>4.580059938865763e-44</v>
+        <v>4.118384014747527e-44</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>4.322062409749015e-44</v>
+        <v>3.870804515634666e-44</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>4.108362879935769e-44</v>
+        <v>3.669136424072671e-44</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>3.932592354502603e-44</v>
+        <v>3.506680306052735e-44</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>3.788381838526104e-44</v>
+        <v>3.376736727566054e-44</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>3.669362337082849e-44</v>
+        <v>3.272606254603823e-44</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>3.569164855249425e-44</v>
+        <v>3.187589453157238e-44</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>3.481420398102414e-44</v>
+        <v>3.114986889217494e-44</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>3.399768171897489e-44</v>
+        <v>3.048107769194516e-44</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>3.319655042961992e-44</v>
+        <v>2.982165774423611e-44</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>3.240595434747038e-44</v>
+        <v>2.916659994028421e-44</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>3.162659513507555e-44</v>
+        <v>2.851675024469625e-44</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>3.085917445498471e-44</v>
+        <v>2.787295462207899e-44</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>3.010439396974717e-44</v>
+        <v>2.723605903703923e-44</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>2.93629553419122e-44</v>
+        <v>2.660690945418373e-44</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>2.863556023402909e-44</v>
+        <v>2.598635183811928e-44</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>2.792291030864711e-44</v>
+        <v>2.537523215345265e-44</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>2.722570722831558e-44</v>
+        <v>2.477439636479062e-44</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>2.654465265558375e-44</v>
+        <v>2.418469043673996e-44</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>2.588044825300093e-44</v>
+        <v>2.360696033390745e-44</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>2.52337956831164e-44</v>
+        <v>2.304205202089987e-44</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>2.460539660847943e-44</v>
+        <v>2.249081146232399e-44</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>2.399595269163933e-44</v>
+        <v>2.19540846227866e-44</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>2.340616559514592e-44</v>
+        <v>2.143271746689497e-44</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>2.283673698154683e-44</v>
+        <v>2.092755595925437e-44</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>2.228836851339353e-44</v>
+        <v>2.043944606447356e-44</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>2.176176185323369e-44</v>
+        <v>1.996923374715784e-44</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>2.125761866361714e-44</v>
+        <v>1.951776497191449e-44</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>2.077664060709315e-44</v>
+        <v>1.908588570335028e-44</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>2.031952934621103e-44</v>
+        <v>1.8674441906072e-44</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.988698654352004e-44</v>
+        <v>1.828427954468641e-44</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.947971386156949e-44</v>
+        <v>1.791624458380029e-44</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.909841296290865e-44</v>
+        <v>1.757118298802042e-44</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.874378551008682e-44</v>
+        <v>1.724994072195358e-44</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.841653316565326e-44</v>
+        <v>1.695336375020654e-44</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>1.811735759215727e-44</v>
+        <v>1.668229803738608e-44</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>1.784696045214815e-44</v>
+        <v>1.643758954809898e-44</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>1.760604340817517e-44</v>
+        <v>1.622008424695201e-44</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>1.739530812278761e-44</v>
+        <v>1.603062809855196e-44</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>1.721545625853477e-44</v>
+        <v>1.587006706750559e-44</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>1.706718947796592e-44</v>
+        <v>1.573924711841968e-44</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>1.695120944363037e-44</v>
+        <v>1.563901421590102e-44</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>1.686821781807738e-44</v>
+        <v>1.557021432455637e-44</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>1.681891626385625e-44</v>
+        <v>1.553369340899252e-44</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>1.680400644351626e-44</v>
+        <v>1.553029743381624e-44</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>1.682419001960671e-44</v>
+        <v>1.556087236363431e-44</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>1.688029183110059e-44</v>
+        <v>1.562639720417805e-44</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>1.697428424515108e-44</v>
+        <v>1.572909039024251e-44</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>1.710876406132472e-44</v>
+        <v>1.587184479729866e-44</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>1.72863343307048e-44</v>
+        <v>1.605756005299287e-44</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>1.750959810437456e-44</v>
+        <v>1.628913578497147e-44</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>1.778115843341727e-44</v>
+        <v>1.656947162088081e-44</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.810361836891617e-44</v>
+        <v>1.690146718836723e-44</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.847958096195456e-44</v>
+        <v>1.728802211507708e-44</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>1.891164926361566e-44</v>
+        <v>1.77320360286567e-44</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.940242632498275e-44</v>
+        <v>1.823640855675243e-44</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.995451519713909e-44</v>
+        <v>1.880403932701061e-44</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>2.057051893116793e-44</v>
+        <v>1.94378279670776e-44</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>2.125304057815255e-44</v>
+        <v>2.014067410459973e-44</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>2.200468318917619e-44</v>
+        <v>2.091547736722335e-44</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>2.282804981532128e-44</v>
+        <v>2.176513738259394e-44</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>2.372574350767359e-44</v>
+        <v>2.269255377836043e-44</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>2.470036731731291e-44</v>
+        <v>2.370062618216556e-44</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>2.575452429532519e-44</v>
+        <v>2.479225422165849e-44</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>2.68908174927928e-44</v>
+        <v>2.597033752448462e-44</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>2.8111849960799e-44</v>
+        <v>2.72377757182903e-44</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>2.942022475042705e-44</v>
+        <v>2.859746843072187e-44</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>3.08185449127602e-44</v>
+        <v>3.005231528942568e-44</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>3.230941349888172e-44</v>
+        <v>3.160521592204807e-44</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>3.389539241077241e-44</v>
+        <v>3.325902660453023e-44</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>3.556829599713815e-44</v>
+        <v>3.500528077142087e-44</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>3.72948798041479e-44</v>
+        <v>3.680911172327044e-44</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>3.903833487194223e-44</v>
+        <v>3.863189745601544e-44</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>4.076185224066181e-44</v>
+        <v>4.043501596559245e-44</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>4.242862295044725e-44</v>
+        <v>4.217984524793801e-44</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>4.400183804143914e-44</v>
+        <v>4.382776329898862e-44</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>4.544468855377812e-44</v>
+        <v>4.534014811468085e-44</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>4.672036552760481e-44</v>
+        <v>4.667837769095123e-44</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>4.779206000305981e-44</v>
+        <v>4.78038300237363e-44</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>4.862296302028376e-44</v>
+        <v>4.867788310897262e-44</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>4.917626561941728e-44</v>
+        <v>4.92619149425967e-44</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>4.941515884060096e-44</v>
+        <v>4.951730352054509e-44</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>4.930283372397545e-44</v>
+        <v>4.940542683875432e-44</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>4.880319764461672e-44</v>
+        <v>4.88884204536941e-44</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>4.791686405933664e-44</v>
+        <v>4.796723846533292e-44</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>4.669799966280317e-44</v>
+        <v>4.669947023937499e-44</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>4.520500835331163e-44</v>
+        <v>4.514718619930954e-44</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>4.349629402915732e-44</v>
+        <v>4.337245676862583e-44</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>4.163026058863559e-44</v>
+        <v>4.14373523708131e-44</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>3.966531193004174e-44</v>
+        <v>3.94039434293606e-44</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>3.765985195167109e-44</v>
+        <v>3.733430036775759e-44</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>3.567228455181898e-44</v>
+        <v>3.529049360949331e-44</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>3.376101362878071e-44</v>
+        <v>3.333459357805702e-44</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>3.197820936073689e-44</v>
+        <v>3.15219593826651e-44</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>3.033359867949461e-44</v>
+        <v>2.986225511255706e-44</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>2.881921762978311e-44</v>
+        <v>2.834609858913229e-44</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>2.742704368955619e-44</v>
+        <v>2.696404457994299e-44</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>2.614905433676769e-44</v>
+        <v>2.57066478525413e-44</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>2.497722704937139e-44</v>
+        <v>2.456446317447942e-44</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>2.39035393053221e-44</v>
+        <v>2.352804531331048e-44</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>2.291996858257157e-44</v>
+        <v>2.258794903658465e-44</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>2.201849235907468e-44</v>
+        <v>2.173472911185515e-44</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>2.119108811278526e-44</v>
+        <v>2.095894030667416e-44</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>2.04297333216571e-44</v>
+        <v>2.025113738859385e-44</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>1.972640546364402e-44</v>
+        <v>1.96018751251664e-44</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>1.907308201669982e-44</v>
+        <v>1.900170828394397e-44</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>1.846174045877833e-44</v>
+        <v>1.844119163247876e-44</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>1.788435826783333e-44</v>
+        <v>1.791087993832291e-44</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>1.733291292181865e-44</v>
+        <v>1.740132796902863e-44</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>1.67993818986881e-44</v>
+        <v>1.690309049214806e-44</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>1.627574267639548e-44</v>
+        <v>1.64067222752334e-44</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>1.575410712523664e-44</v>
+        <v>1.590294293452021e-44</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>1.523126460488502e-44</v>
+        <v>1.538820960040525e-44</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>1.470978192514461e-44</v>
+        <v>1.486606615416019e-44</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>1.419258336101744e-44</v>
+        <v>1.434049495194577e-44</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>1.36825931875055e-44</v>
+        <v>1.381547834992271e-44</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>1.318273567961082e-44</v>
+        <v>1.329499870425174e-44</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>1.269593511233542e-44</v>
+        <v>1.278303837109358e-44</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>1.22251157606813e-44</v>
+        <v>1.228357970660895e-44</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>1.17732018996505e-44</v>
+        <v>1.180060506695859e-44</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>1.134311780424501e-44</v>
+        <v>1.133809680830322e-44</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>1.093778774946686e-44</v>
+        <v>1.090003728680356e-44</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>1.056013601031808e-44</v>
+        <v>1.049040885862035e-44</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>1.021234535208908e-44</v>
+        <v>1.011232309311762e-44</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>9.892901234458459e-45</v>
+        <v>9.764549654408765e-45</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>9.599139023534094e-45</v>
+        <v>9.444507602183944e-45</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>9.328393719565782e-45</v>
+        <v>9.149615566490413e-45</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>9.07800032280332e-45</v>
+        <v>8.877292177375434e-45</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>8.845293833496511e-45</v>
+        <v>8.624956064886267e-45</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>8.627609251895148e-45</v>
+        <v>8.390025859070168e-45</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>8.422343436768546e-45</v>
+        <v>8.169976611175735e-45</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>8.228052807744861e-45</v>
+        <v>7.963341008767349e-45</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>8.044323614249343e-45</v>
+        <v>7.769591047927938e-45</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>7.870777903461588e-45</v>
+        <v>7.588231375898607e-45</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>7.707037722561184e-45</v>
+        <v>7.418766639920455e-45</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>7.552725118727735e-45</v>
+        <v>7.260701487234599e-45</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>7.407462139140963e-45</v>
+        <v>7.113540565082267e-45</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>7.270870830980185e-45</v>
+        <v>6.976788520704291e-45</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>7.142573241425143e-45</v>
+        <v>6.84995000134192e-45</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>7.022191417655424e-45</v>
+        <v>6.732529654236255e-45</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>6.909347406850634e-45</v>
+        <v>6.624032126628409e-45</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>6.803663256190357e-45</v>
+        <v>6.523962065759481e-45</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>6.704761012854193e-45</v>
+        <v>6.431824118870577e-45</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>6.612262724021734e-45</v>
+        <v>6.347122933202804e-45</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>6.525790436872577e-45</v>
+        <v>6.269363155997268e-45</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>6.444966198586312e-45</v>
+        <v>6.198049434495068e-45</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>6.369412056342539e-45</v>
+        <v>6.132686415937315e-45</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>6.298750057320851e-45</v>
+        <v>6.072778747565114e-45</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>6.23260224870084e-45</v>
+        <v>6.017831076619566e-45</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>6.170590677662105e-45</v>
+        <v>5.967348050341781e-45</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>6.112337391384234e-45</v>
+        <v>5.92083431597286e-45</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>6.057464437046828e-45</v>
+        <v>5.877794520753911e-45</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>6.005593861829478e-45</v>
+        <v>5.837733311926036e-45</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>5.95634771291178e-45</v>
+        <v>5.800155336730341e-45</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>5.909348037473325e-45</v>
+        <v>5.764565242407933e-45</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>5.864216882693716e-45</v>
+        <v>5.730467676199917e-45</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.820576295752538e-45</v>
+        <v>5.697367285347397e-45</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.778048323829392e-45</v>
+        <v>5.664768717091479e-45</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.736274328827125e-45</v>
+        <v>5.632201583151444e-45</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.695175074785402e-45</v>
+        <v>5.599556625377948e-45</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.654881601879328e-45</v>
+        <v>5.566996369686311e-45</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.615530088737828e-45</v>
+        <v>5.534689983496184e-45</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.577256713989825e-45</v>
+        <v>5.50280663422721e-45</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>5.540197656264233e-45</v>
+        <v>5.471515489299034e-45</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>5.504489094189978e-45</v>
+        <v>5.440985716131306e-45</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>5.470267206395976e-45</v>
+        <v>5.411386482143666e-45</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>5.437668171511151e-45</v>
+        <v>5.382886954755763e-45</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>5.40682816816442e-45</v>
+        <v>5.355656301387244e-45</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>5.377883374984705e-45</v>
+        <v>5.329863689457752e-45</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>5.350969970600928e-45</v>
+        <v>5.305678286386934e-45</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>5.326224133642008e-45</v>
+        <v>5.283269259594438e-45</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>5.303782042736863e-45</v>
+        <v>5.262805776499903e-45</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>5.283779876514417e-45</v>
+        <v>5.244457004522982e-45</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>5.266353813603606e-45</v>
+        <v>5.228392111083333e-45</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>5.251640032633315e-45</v>
+        <v>5.21478026360057e-45</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>5.239774712232483e-45</v>
+        <v>5.203790629494355e-45</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>5.23089403103003e-45</v>
+        <v>5.195592376184335e-45</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>5.225134167654876e-45</v>
+        <v>5.190354671090155e-45</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>5.22263130073594e-45</v>
+        <v>5.188246681631458e-45</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>5.223521608902149e-45</v>
+        <v>5.189437575227897e-45</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>5.227941270782417e-45</v>
+        <v>5.194096519299112e-45</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>5.236026465005665e-45</v>
+        <v>5.202392681264749e-45</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>5.247913370200815e-45</v>
+        <v>5.214495228544456e-45</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>5.26373816499679e-45</v>
+        <v>5.230573328557878e-45</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>5.283637028022505e-45</v>
+        <v>5.25079614872466e-45</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>5.307746137906882e-45</v>
+        <v>5.275332856464449e-45</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>5.336201673278845e-45</v>
+        <v>5.304352619196889e-45</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>5.369139812767309e-45</v>
+        <v>5.338024604341628e-45</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>5.406696735001198e-45</v>
+        <v>5.376517979318312e-45</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>5.449008618609433e-45</v>
+        <v>5.420001911546583e-45</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>5.496211642220933e-45</v>
+        <v>5.468645568446091e-45</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>5.548441984464616e-45</v>
+        <v>5.522618117436479e-45</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>5.605835823969406e-45</v>
+        <v>5.582088725937394e-45</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>5.668529339364223e-45</v>
+        <v>5.647226561368483e-45</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>5.736658709277985e-45</v>
+        <v>5.718200791149389e-45</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>5.810356035778822e-45</v>
+        <v>5.795175919104998e-45</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>5.889499691530836e-45</v>
+        <v>5.878026182048449e-45</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>5.973569423630584e-45</v>
+        <v>5.966169788242542e-45</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>6.062010056397183e-45</v>
+        <v>6.058984994213738e-45</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>6.154266414149747e-45</v>
+        <v>6.155850056488503e-45</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>6.249783321207389e-45</v>
+        <v>6.256143231593301e-45</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>6.348005601889229e-45</v>
+        <v>6.359242776054594e-45</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>6.448378080514378e-45</v>
+        <v>6.464526946398845e-45</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>6.550345581401951e-45</v>
+        <v>6.571373999152521e-45</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>6.65335292887107e-45</v>
+        <v>6.679162190842087e-45</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>6.756844947240846e-45</v>
+        <v>6.787269777994007e-45</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>6.860266460830393e-45</v>
+        <v>6.895075017134739e-45</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>6.963062293958827e-45</v>
+        <v>7.001956164790752e-45</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>7.064677270945264e-45</v>
+        <v>7.10729147748851e-45</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>7.164556216108821e-45</v>
+        <v>7.210459211754475e-45</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>7.262143953768518e-45</v>
+        <v>7.310837624115017e-45</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>7.356885308243659e-45</v>
+        <v>7.407804971096793e-45</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>7.448225103853267e-45</v>
+        <v>7.50073950922617e-45</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>7.535608164916456e-45</v>
+        <v>7.589019495029612e-45</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>7.618501262745383e-45</v>
+        <v>7.672047595310219e-45</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>7.697002539748205e-45</v>
+        <v>7.749928711709434e-45</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>7.77192104533185e-45</v>
+        <v>7.823558443549566e-45</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>7.844103753307242e-45</v>
+        <v>7.893874571110961e-45</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>7.914397637485294e-45</v>
+        <v>7.961814874673963e-45</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>7.983649671676938e-45</v>
+        <v>8.028317134518919e-45</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>8.052706829693085e-45</v>
+        <v>8.09431913092617e-45</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>8.122416085344661e-45</v>
+        <v>8.160758644176063e-45</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>8.193624412442585e-45</v>
+        <v>8.228573454548941e-45</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>8.267178784797777e-45</v>
+        <v>8.298701342325148e-45</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>8.343926176221159e-45</v>
+        <v>8.372080087785031e-45</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>8.424713560523651e-45</v>
+        <v>8.449647471208933e-45</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>8.510387911516171e-45</v>
+        <v>8.532341272877198e-45</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>8.601796203009644e-45</v>
+        <v>8.621099273070171e-45</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>8.699785408814987e-45</v>
+        <v>8.716859252068197e-45</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>8.80516310036172e-45</v>
+        <v>8.820518010966074e-45</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>8.917305198135846e-45</v>
+        <v>8.931483408120579e-45</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>9.033783788486999e-45</v>
+        <v>9.047287281933963e-45</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>9.152055870459773e-45</v>
+        <v>9.165341777940704e-45</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>9.26957844309877e-45</v>
+        <v>9.283059041675291e-45</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>9.383808505448586e-45</v>
+        <v>9.397851218672202e-45</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>9.492203056553827e-45</v>
+        <v>9.507130454465929e-45</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>9.592219095459087e-45</v>
+        <v>9.608308894590953e-45</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>9.68131362120897e-45</v>
+        <v>9.698798684581758e-45</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>9.75694363284807e-45</v>
+        <v>9.77601196997283e-45</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>9.816610922860564e-45</v>
+        <v>9.83740621920301e-45</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>9.859421502525866e-45</v>
+        <v>9.882062081599134e-45</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>9.88648928881129e-45</v>
+        <v>9.911091845904794e-45</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>9.899055006733665e-45</v>
+        <v>9.925736107802142e-45</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>9.898359381309832e-45</v>
+        <v>9.927235462973353e-45</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>9.885643137556618e-45</v>
+        <v>9.916830507100583e-45</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>9.862147000490865e-45</v>
+        <v>9.895761835866002e-45</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>9.829111695129403e-45</v>
+        <v>9.865270044951771e-45</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>9.787777946489117e-45</v>
+        <v>9.826595730040097e-45</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>9.739386479586755e-45</v>
+        <v>9.780979486813069e-45</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>9.685178019439188e-45</v>
+        <v>9.729661910952881e-45</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>9.626393291063254e-45</v>
+        <v>9.6738835981417e-45</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>9.564273019475784e-45</v>
+        <v>9.614885144061691e-45</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>9.499780044558633e-45</v>
+        <v>9.55360942758843e-45</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>9.432346098730304e-45</v>
+        <v>9.489358950451901e-45</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>9.36087841685526e-45</v>
+        <v>9.420874285307104e-45</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>9.284283769706689e-45</v>
+        <v>9.346895507597231e-45</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>9.201468928057785e-45</v>
+        <v>9.266162692765475e-45</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>9.111340662681743e-45</v>
+        <v>9.177415916255031e-45</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>9.012805744351751e-45</v>
+        <v>9.079395253509089e-45</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>8.904770943841005e-45</v>
+        <v>8.970840779970841e-45</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>8.786143031922691e-45</v>
+        <v>8.85049257108348e-45</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>8.655828779370007e-45</v>
+        <v>8.717090702290197e-45</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>8.51273498868324e-45</v>
+        <v>8.569375310650979e-45</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>8.355985951642201e-45</v>
+        <v>8.40650891635759e-45</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>8.185442758500515e-45</v>
+        <v>8.229084966439003e-45</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>8.001122374760579e-45</v>
+        <v>8.037999631239508e-45</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>7.803041765924778e-45</v>
+        <v>7.834149081103377e-45</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>7.591217897495507e-45</v>
+        <v>7.618429486374897e-45</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>7.365746190456618e-45</v>
+        <v>7.391786951209571e-45</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>7.129039111282461e-45</v>
+        <v>7.156642287583908e-45</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>6.886152728026537e-45</v>
+        <v>6.917098855331324e-45</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>6.642287231567177e-45</v>
+        <v>6.677351742763526e-45</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>6.402642812782727e-45</v>
+        <v>6.441596038192221e-45</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>6.171742485928235e-45</v>
+        <v>6.213476256738555e-45</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>5.950108330560681e-45</v>
+        <v>5.99338398466253e-45</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>5.736798296799171e-45</v>
+        <v>5.780520409163855e-45</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>5.530868147226848e-45</v>
+        <v>5.574084938883131e-45</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>5.331373644426863e-45</v>
+        <v>5.373276982460958e-45</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>5.137370550982359e-45</v>
+        <v>5.177295948537936e-45</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>4.947914629476485e-45</v>
+        <v>4.985341245754663e-45</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>4.762061642492386e-45</v>
+        <v>4.796612282751743e-45</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>4.578867352613212e-45</v>
+        <v>4.610308468169772e-45</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>4.397387522422279e-45</v>
+        <v>4.425629210649529e-45</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>4.216677914502212e-45</v>
+        <v>4.24177391883108e-45</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>4.035940375004802e-45</v>
+        <v>4.058078302870272e-45</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>3.855637562873335e-45</v>
+        <v>3.875054459120429e-45</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>3.676876832457176e-45</v>
+        <v>3.693816009222878e-45</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>3.500770733645792e-45</v>
+        <v>3.515481422454984e-45</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>3.328431816329344e-45</v>
+        <v>3.341169168094822e-45</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>3.160972630397813e-45</v>
+        <v>3.171997715420285e-45</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>2.999505725741186e-45</v>
+        <v>3.009085533709272e-45</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>2.845143652249449e-45</v>
+        <v>2.853551092239677e-45</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>2.698998959812586e-45</v>
+        <v>2.706512860289398e-45</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>2.562163451457684e-45</v>
+        <v>2.569068016248767e-45</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>2.434964085300358e-45</v>
+        <v>2.441528837817759e-45</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>2.316757725744707e-45</v>
+        <v>2.323212071167712e-45</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>2.206838712012668e-45</v>
+        <v>2.2133702977512e-45</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>2.104501383326182e-45</v>
+        <v>2.111256099020798e-45</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>2.009040078907186e-45</v>
+        <v>2.01612205642908e-45</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>1.919749137977619e-45</v>
+        <v>1.927220751428623e-45</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>1.835922899759421e-45</v>
+        <v>1.843804765472001e-45</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>1.756855703474529e-45</v>
+        <v>1.765126680011787e-45</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>1.681841888344883e-45</v>
+        <v>1.690439076500558e-45</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>1.610175793592421e-45</v>
+        <v>1.618994536390888e-45</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>1.541151758439082e-45</v>
+        <v>1.550045641135353e-45</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>1.474064122106805e-45</v>
+        <v>1.482844972186526e-45</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>1.408207223817528e-45</v>
+        <v>1.416645110996984e-45</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>1.342875941189171e-45</v>
+        <v>1.350699218607522e-45</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.277869732245022e-45</v>
+        <v>1.284803641503991e-45</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>1.214428850029928e-45</v>
+        <v>1.220305755258366e-45</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>1.154049044477879e-45</v>
+        <v>1.158827980192596e-45</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>1.098226065522864e-45</v>
+        <v>1.101992736628633e-45</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>1.04845566309887e-45</v>
+        <v>1.051422444888427e-45</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.006233587139887e-45</v>
+        <v>1.008739525293928e-45</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>9.730555875799052e-46</v>
+        <v>9.755663981670869e-46</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>9.492191436950137e-46</v>
+        <v>9.5223739474963e-46</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>9.289081630198748e-46</v>
+        <v>9.325150213375611e-46</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>9.057500454027289e-46</v>
+        <v>9.095596063033322e-46</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>8.796882927894727e-46</v>
+        <v>8.833030117117462e-46</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>8.524622359273094e-46</v>
+        <v>8.556024198983115e-46</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>8.258113308436163e-46</v>
+        <v>8.283151475122691e-46</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>8.014750335659498e-46</v>
+        <v>8.03298511203043e-46</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>7.811928001216747e-46</v>
+        <v>7.824098276198603e-46</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>7.667040865383231e-46</v>
+        <v>7.675064134121205e-46</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>7.59674534644071e-46</v>
+        <v>7.603668982773289e-46</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>7.599223788577674e-46</v>
+        <v>7.608005502017834e-46</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>7.653312533314663e-46</v>
+        <v>7.66554326675095e-46</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>7.73693527819081e-46</v>
+        <v>7.752778960830276e-46</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>7.828015720745244e-46</v>
+        <v>7.846209268113439e-46</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>7.906259037189248e-46</v>
+        <v>7.92431526136505e-46</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>7.964097345257443e-46</v>
+        <v>7.979754552184201e-46</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>7.999499539292291e-46</v>
+        <v>8.011352167055561e-46</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>8.010457235780896e-46</v>
+        <v>8.017958442658353e-46</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>7.994962051210383e-46</v>
+        <v>7.998423715671815e-46</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>7.95101704094495e-46</v>
+        <v>7.951604514808619e-46</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>7.877524929070651e-46</v>
+        <v>7.87684437277442e-46</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>7.774921777818387e-46</v>
+        <v>7.774316840903938e-46</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>7.643793228809612e-46</v>
+        <v>7.644276440069563e-46</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>7.484724923665778e-46</v>
+        <v>7.486977691143686e-46</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>7.298302504008332e-46</v>
+        <v>7.302675114998698e-46</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>7.085236858965987e-46</v>
+        <v>7.091759942386312e-46</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>6.8481242433652e-46</v>
+        <v>6.856681314212687e-46</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>6.591018067258749e-46</v>
+        <v>6.601478882201306e-46</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>6.318009560168345e-46</v>
+        <v>6.330233578697892e-46</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>6.033189951615698e-46</v>
+        <v>6.047026336048165e-46</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>5.740650471122517e-46</v>
+        <v>5.755938086597843e-46</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>5.444482348210517e-46</v>
+        <v>5.46104976269265e-46</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>5.148776812401405e-46</v>
+        <v>5.166442296678309e-46</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>4.857625093216889e-46</v>
+        <v>4.876196620900533e-46</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>4.57510687067105e-46</v>
+        <v>4.594382185873755e-46</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>4.303971864124447e-46</v>
+        <v>4.323746274593464e-46</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>4.044422358625271e-46</v>
+        <v>4.064503662874939e-46</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>3.796372856048648e-46</v>
+        <v>3.816583029675689e-46</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>3.559737858269704e-46</v>
+        <v>3.579913053953235e-46</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>3.334431867163567e-46</v>
+        <v>3.354422414665085e-46</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>3.120369384605364e-46</v>
+        <v>3.140039790768756e-46</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>2.91746491247041e-46</v>
+        <v>2.936693861221952e-46</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>2.725632952633259e-46</v>
+        <v>2.744313304981611e-46</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>2.544788006969783e-46</v>
+        <v>2.562826801005993e-46</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>2.374844577354405e-46</v>
+        <v>2.392163028251909e-46</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>2.215717165662912e-46</v>
+        <v>2.232250665677533e-46</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>2.067320273769952e-46</v>
+        <v>2.0830183922399e-46</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>1.92956840355081e-46</v>
+        <v>1.944394886896681e-46</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>1.802375807115425e-46</v>
+        <v>1.816308575172289e-46</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>1.685537947035771e-46</v>
+        <v>1.698567348575352e-46</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>1.578541792982933e-46</v>
+        <v>1.590666075356534e-46</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>1.480824883783881e-46</v>
+        <v>1.492049467008198e-46</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>1.391824758265582e-46</v>
+        <v>1.402162235022704e-46</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>1.310978955255008e-46</v>
+        <v>1.320449090892413e-46</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.237725013579125e-46</v>
+        <v>1.246354746109686e-46</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.171500472064905e-46</v>
+        <v>1.179323912166885e-46</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.111742869539316e-46</v>
+        <v>1.11880130055637e-46</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.057889744829326e-46</v>
+        <v>1.064231622770502e-46</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>1.009378636761906e-46</v>
+        <v>1.015059590301643e-46</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>9.656470841640241e-47</v>
+        <v>9.707299146421524e-47</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>9.2613262586265e-47</v>
+        <v>9.306873072843926e-47</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>8.902728006847521e-47</v>
+        <v>8.943764797207241e-47</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>8.575369733505719e-47</v>
+        <v>8.612702599571053e-47</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>8.276411069109644e-47</v>
+        <v>8.310593327382394e-47</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>8.004163082399965e-47</v>
+        <v>8.035361063596292e-47</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>7.756943339765822e-47</v>
+        <v>7.784935631500656e-47</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>7.53306940759636e-47</v>
+        <v>7.557246854383406e-47</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>7.330858852280721e-47</v>
+        <v>7.350224555532451e-47</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>7.148629240208048e-47</v>
+        <v>7.161798558235705e-47</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>6.984698137767479e-47</v>
+        <v>6.989898685781079e-47</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>6.83738311134816e-47</v>
+        <v>6.832454761456488e-47</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>6.70352284053693e-47</v>
+        <v>6.686354303136752e-47</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>6.572175581453733e-47</v>
+        <v>6.543001259918447e-47</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>6.429849989371355e-47</v>
+        <v>6.392002646365977e-47</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>6.263053240675769e-47</v>
+        <v>6.222964434738338e-47</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>6.058294997518292e-47</v>
+        <v>6.025494825966969e-47</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>5.824444162458875e-47</v>
+        <v>5.809248733458767e-47</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>5.639588635935408e-47</v>
+        <v>5.645204575006374e-47</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>5.503134374194474e-47</v>
+        <v>5.524661978628453e-47</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>5.350611708186656e-47</v>
+        <v>5.375607347813581e-47</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>5.151579719394499e-47</v>
+        <v>5.165732692738548e-47</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>4.933261836428111e-47</v>
+        <v>4.929667939129254e-47</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>4.72821470239865e-47</v>
+        <v>4.708233913669454e-47</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>4.56704357044314e-47</v>
+        <v>4.539804588666205e-47</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>4.44815618590072e-47</v>
+        <v>4.42238137434179e-47</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>4.343545262065344e-47</v>
+        <v>4.320843784406955e-47</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>4.226404275196082e-47</v>
+        <v>4.201649509066262e-47</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>4.091936533771689e-47</v>
+        <v>4.059660171033864e-47</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>3.949073512479814e-47</v>
+        <v>3.907453743725063e-47</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>3.806951199869425e-47</v>
+        <v>3.757871680694658e-47</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>3.672028771346848e-47</v>
+        <v>3.620001620909052e-47</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>3.543450642908713e-47</v>
+        <v>3.492673389613844e-47</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>3.419123173834652e-47</v>
+        <v>3.372980629841729e-47</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>3.296952723404298e-47</v>
+        <v>3.2580169846254e-47</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>3.174845650897279e-47</v>
+        <v>3.144876096997552e-47</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>3.05070831559323e-47</v>
+        <v>3.030651609990881e-47</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>2.922447076771782e-47</v>
+        <v>2.912437166638081e-47</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>2.787968293712566e-47</v>
+        <v>2.787326409971847e-47</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>2.645178325695213e-47</v>
+        <v>2.652412983024872e-47</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>2.493345553980044e-47</v>
+        <v>2.506240467378496e-47</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>2.34229179013739e-47</v>
+        <v>2.358587083734334e-47</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>2.206766544602637e-47</v>
+        <v>2.224476827562585e-47</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>2.101547135169063e-47</v>
+        <v>2.118963296616464e-47</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>2.041410879629946e-47</v>
+        <v>2.057100088649184e-47</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>2.041132215622098e-47</v>
+        <v>2.053937923656806e-47</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>2.109670910684812e-47</v>
+        <v>2.118717695446965e-47</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>2.237977122178856e-47</v>
+        <v>2.242685690548853e-47</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>2.413524805167728e-47</v>
+        <v>2.41361488904362e-47</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>2.623787914714921e-47</v>
+        <v>2.619278271012412e-47</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>2.856240405883931e-47</v>
+        <v>2.847448816536379e-47</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>3.098356233738255e-47</v>
+        <v>3.085899505696668e-47</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>3.337609353341389e-47</v>
+        <v>3.322403318574428e-47</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>3.561473719756827e-47</v>
+        <v>3.544733235250808e-47</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>3.758082960833952e-47</v>
+        <v>3.741287737968701e-47</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>3.922964958108229e-47</v>
+        <v>3.907476545093061e-47</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>4.056290916334643e-47</v>
+        <v>4.043112177065318e-47</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>4.158303911336052e-47</v>
+        <v>4.148075302519915e-47</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>4.229247018934571e-47</v>
+        <v>4.222246590090542e-47</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>4.269367389276756e-47</v>
+        <v>4.265511791511058e-47</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>4.279370055014392e-47</v>
+        <v>4.278327909711179e-47</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>4.260831039372764e-47</v>
+        <v>4.262238589719664e-47</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>4.215423931242901e-47</v>
+        <v>4.218909198846845e-47</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>4.144822319515858e-47</v>
+        <v>4.150005104403084e-47</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>4.050711955690032e-47</v>
+        <v>4.057204172930722e-47</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>3.935678669897018e-47</v>
+        <v>3.943109261093169e-47</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>3.803811310914975e-47</v>
+        <v>3.811867843266741e-47</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>3.659341507942609e-47</v>
+        <v>3.667774125983833e-47</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>3.506500890178625e-47</v>
+        <v>3.51512231577684e-47</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>3.349521086821732e-47</v>
+        <v>3.358206619178161e-47</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>3.192633727070634e-47</v>
+        <v>3.201321242720186e-47</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>3.03975195799265e-47</v>
+        <v>3.048436985509516e-47</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>2.892152747543757e-47</v>
+        <v>2.900847699294251e-47</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>2.749811197593848e-47</v>
+        <v>2.758525236507179e-47</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>2.612693201149412e-47</v>
+        <v>2.621432098303526e-47</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>2.480764651216935e-47</v>
+        <v>2.489530785838519e-47</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>2.353991440802907e-47</v>
+        <v>2.362783800267384e-47</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>2.232339462913816e-47</v>
+        <v>2.241153642745349e-47</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>2.11577461055615e-47</v>
+        <v>2.124602814427639e-47</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>2.004262776736396e-47</v>
+        <v>2.01309381646948e-47</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.897769854461044e-47</v>
+        <v>1.906589150026099e-47</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.796261736736582e-47</v>
+        <v>1.805051316252724e-47</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.699704316569497e-47</v>
+        <v>1.708442816304579e-47</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>1.608059317565205e-47</v>
+        <v>1.616722173847738e-47</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>1.521230470356056e-47</v>
+        <v>1.52979258891369e-47</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>1.439079008007038e-47</v>
+        <v>1.447516720072377e-47</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>1.361465187456283e-47</v>
+        <v>1.369756294696692e-47</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>1.28824926564192e-47</v>
+        <v>1.296373040159526e-47</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>1.219291499502079e-47</v>
+        <v>1.227228683833769e-47</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>1.154452145974892e-47</v>
+        <v>1.162184953092314e-47</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>1.093591461998488e-47</v>
+        <v>1.10110357530805e-47</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>1.036569704510998e-47</v>
+        <v>1.043846277853869e-47</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>9.832471304505525e-48</v>
+        <v>9.90274788102662e-48</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>9.334839967553273e-48</v>
+        <v>9.402508334273665e-48</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>8.871405603633146e-48</v>
+        <v>8.936361412007341e-48</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>8.44077078212823e-48</v>
+        <v>8.502924387958355e-48</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>8.04153807241817e-48</v>
+        <v>8.100814535853946e-48</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>7.672310043885816e-48</v>
+        <v>7.728649129424579e-48</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>7.331689265911352e-48</v>
+        <v>7.385045442398043e-48</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>7.018278307876457e-48</v>
+        <v>7.068620748503622e-48</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>6.730679739162428e-48</v>
+        <v>6.777992321470225e-48</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>6.467496129150577e-48</v>
+        <v>6.511777435026764e-48</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>6.227330047222204e-48</v>
+        <v>6.268593362902153e-48</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>6.008784062758612e-48</v>
+        <v>6.047057378825299e-48</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>5.810460745141106e-48</v>
+        <v>5.845786756525114e-48</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>5.630962663750985e-48</v>
+        <v>5.663398769730505e-48</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>5.46889238796956e-48</v>
+        <v>5.49851069217039e-48</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>5.322852487178128e-48</v>
+        <v>5.349739797573673e-48</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>5.191445530757994e-48</v>
+        <v>5.215703359669267e-48</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>5.073274088090464e-48</v>
+        <v>5.095018652186083e-48</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>4.96694072855684e-48</v>
+        <v>4.986302948853032e-48</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>4.871048021538425e-48</v>
+        <v>4.888173523399023e-48</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>4.784198536416522e-48</v>
+        <v>4.799247649552967e-48</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>4.704994842572436e-48</v>
+        <v>4.718142601043776e-48</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>4.63203950938747e-48</v>
+        <v>4.643475651600359e-48</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>4.563935106242928e-48</v>
+        <v>4.57386407495163e-48</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>4.499284202520112e-48</v>
+        <v>4.507925144826494e-48</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>4.436689367600328e-48</v>
+        <v>4.444276134953867e-48</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>4.374753170864877e-48</v>
+        <v>4.381534319062656e-48</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>4.312078181695063e-48</v>
+        <v>4.318316970881772e-48</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>4.247272080123049e-48</v>
+        <v>4.253246364381299e-48</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>4.179593071514914e-48</v>
+        <v>4.185581245019464e-48</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>4.10958044270128e-48</v>
+        <v>4.115833763438981e-48</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>4.037923164235136e-48</v>
+        <v>4.044662520261625e-48</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>3.965310206669473e-48</v>
+        <v>3.972726116109165e-48</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>3.892430540557281e-48</v>
+        <v>3.900683151603374e-48</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>3.81997313645155e-48</v>
+        <v>3.829192227366024e-48</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>3.74862696490527e-48</v>
+        <v>3.758911944018887e-48</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>3.679080996471431e-48</v>
+        <v>3.690500902183734e-48</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>3.612024201703021e-48</v>
+        <v>3.624617702482337e-48</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>3.548145551153095e-48</v>
+        <v>3.561920945536527e-48</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>3.488134015374458e-48</v>
+        <v>3.503069231967899e-48</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>3.432678564920333e-48</v>
+        <v>3.448721162398452e-48</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>3.382468170343499e-48</v>
+        <v>3.399535337449748e-48</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>3.338191802197135e-48</v>
+        <v>3.356170357743748e-48</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>3.300538431034096e-48</v>
+        <v>3.319284823902088e-48</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>3.270197027407417e-48</v>
+        <v>3.289537336546587e-48</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>3.24785656187009e-48</v>
+        <v>3.267586496299014e-48</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>3.234206004975103e-48</v>
+        <v>3.254090903781144e-48</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>3.229934327275447e-48</v>
+        <v>3.249709159614748e-48</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>3.235730499324111e-48</v>
+        <v>3.255099864421596e-48</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>3.252283491674086e-48</v>
+        <v>3.27092161882346e-48</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>3.280282274878362e-48</v>
+        <v>3.297833023442113e-48</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>3.320415819489928e-48</v>
+        <v>3.336492678899327e-48</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>3.373373096061776e-48</v>
+        <v>3.387559185816873e-48</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>3.439843075146895e-48</v>
+        <v>3.451691144816523e-48</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>3.520514727298274e-48</v>
+        <v>3.529547156520049e-48</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>3.616077023068904e-48</v>
+        <v>3.621785821549221e-48</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>3.727033593210415e-48</v>
+        <v>3.7288956254492e-48</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>3.85184779302557e-48</v>
+        <v>3.849492376597311e-48</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>3.987718987829601e-48</v>
+        <v>3.98103172375061e-48</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>4.131827706922372e-48</v>
+        <v>4.120952026933917e-48</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>4.281354479603751e-48</v>
+        <v>4.266691646172058e-48</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>4.4334798351736e-48</v>
+        <v>4.415688941489855e-48</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>4.585384302931787e-48</v>
+        <v>4.565382272912129e-48</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>4.734248412178177e-48</v>
+        <v>4.713210000463707e-48</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>4.877252692212633e-48</v>
+        <v>4.856610484169411e-48</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>5.011577672335021e-48</v>
+        <v>4.99302208405406e-48</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>5.134572404570721e-48</v>
+        <v>5.120001719276583e-48</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>5.244924296351227e-48</v>
+        <v>5.236047868999647e-48</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>5.341958979657425e-48</v>
+        <v>5.340108016220315e-48</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>5.425006017029398e-48</v>
+        <v>5.431132409163263e-48</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>5.493394971007229e-48</v>
+        <v>5.508071296053171e-48</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>5.546455404131002e-48</v>
+        <v>5.569874925114715e-48</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>5.583516878940798e-48</v>
+        <v>5.615493544572572e-48</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>5.603908957976698e-48</v>
+        <v>5.643877402651418e-48</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>5.606961203778787e-48</v>
+        <v>5.653976747575934e-48</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>5.592003178887171e-48</v>
+        <v>5.644741827570815e-48</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>5.558364445841862e-48</v>
+        <v>5.615122890860682e-48</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>5.505374567183074e-48</v>
+        <v>5.564070185670329e-48</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>5.432363105450682e-48</v>
+        <v>5.490533960224234e-48</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>5.338659623185055e-48</v>
+        <v>5.393464462747362e-48</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>5.223953146369601e-48</v>
+        <v>5.272302815852126e-48</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>5.090158528220869e-48</v>
+        <v>5.129529676769356e-48</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>4.940041516221146e-48</v>
+        <v>4.968787662894166e-48</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>4.776369566609313e-48</v>
+        <v>4.793721725057414e-48</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>4.60191013562425e-48</v>
+        <v>4.607976814089953e-48</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>4.41943067950484e-48</v>
+        <v>4.415197880822639e-48</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>4.231698654489964e-48</v>
+        <v>4.219029876086331e-48</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>4.041481516818502e-48</v>
+        <v>4.023117750711882e-48</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>3.851546722729335e-48</v>
+        <v>3.831106455530147e-48</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>3.664623293103942e-48</v>
+        <v>3.646554300787736e-48</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>3.482606521692876e-48</v>
+        <v>3.471140217674841e-48</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>3.306584990369874e-48</v>
+        <v>3.304724655831034e-48</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>3.13761425053992e-48</v>
+        <v>3.147093607955601e-48</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>2.976749853607992e-48</v>
+        <v>2.998033066747819e-48</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>2.825047350979073e-48</v>
+        <v>2.857329024906971e-48</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>2.683562294058146e-48</v>
+        <v>2.724767475132341e-48</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>2.553350234250188e-48</v>
+        <v>2.600134410123207e-48</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>2.435466722960183e-48</v>
+        <v>2.483215822578852e-48</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>2.330964688510764e-48</v>
+        <v>2.37379762012652e-48</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>2.240041925160724e-48</v>
+        <v>2.271637976610104e-48</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>2.160815007309627e-48</v>
+        <v>2.176427567567537e-48</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>2.09108992812348e-48</v>
+        <v>2.0878469957388e-48</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>2.028672680768291e-48</v>
+        <v>2.00557686386388e-48</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>1.971369258410066e-48</v>
+        <v>1.929297774682756e-48</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>1.916985654214813e-48</v>
+        <v>1.858690330935415e-48</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>1.863327861348538e-48</v>
+        <v>1.793435135361837e-48</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>1.808502603754638e-48</v>
+        <v>1.733239005585543e-48</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>1.752927780260206e-48</v>
+        <v>1.678010225740825e-48</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>1.698092874075948e-48</v>
+        <v>1.627750490620032e-48</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>1.645493237248288e-48</v>
+        <v>1.582462006605468e-48</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>1.596624221823654e-48</v>
+        <v>1.542146980079438e-48</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>1.55298117984847e-48</v>
+        <v>1.506807617424246e-48</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>1.516029965472447e-48</v>
+        <v>1.476443407790399e-48</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>1.486292115782792e-48</v>
+        <v>1.450966853503582e-48</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>1.463168193994024e-48</v>
+        <v>1.430187197124819e-48</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>1.445993608017961e-48</v>
+        <v>1.413907679361232e-48</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>1.434103765766579e-48</v>
+        <v>1.40193154092009e-48</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>1.426834075151745e-48</v>
+        <v>1.394062022508552e-48</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>1.42351994408538e-48</v>
+        <v>1.390102364833836e-48</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>1.423496780479393e-48</v>
+        <v>1.389855808603144e-48</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>1.426109148003551e-48</v>
+        <v>1.393121255478325e-48</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>1.430919877360522e-48</v>
+        <v>1.39959416723455e-48</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>1.437714422843012e-48</v>
+        <v>1.408864501125219e-48</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>1.446288265919694e-48</v>
+        <v>1.420517462380799e-48</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>1.456436888059242e-48</v>
+        <v>1.434138256231756e-48</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>1.467955770730329e-48</v>
+        <v>1.449312087908559e-48</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>1.48064039540163e-48</v>
+        <v>1.465624162641672e-48</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>1.494286243541818e-48</v>
+        <v>1.482659685661565e-48</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>1.508688796619566e-48</v>
+        <v>1.500003862198702e-48</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>1.523632484723237e-48</v>
+        <v>1.517256869187587e-48</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>1.538820851386465e-48</v>
+        <v>1.534128463499683e-48</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>1.553921493408551e-48</v>
+        <v>1.55037710034569e-48</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>1.568601844501937e-48</v>
+        <v>1.565761455875973e-48</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>1.58252933837906e-48</v>
+        <v>1.580040206240893e-48</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>1.595371408752364e-48</v>
+        <v>1.592972027590814e-48</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>1.606795489334288e-48</v>
+        <v>1.604315596076097e-48</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>1.616469013837271e-48</v>
+        <v>1.613829587847105e-48</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>1.624059415973755e-48</v>
+        <v>1.621272679054202e-48</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>1.629233172963903e-48</v>
+        <v>1.626402208127358e-48</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>1.631563380041153e-48</v>
+        <v>1.628844912350338e-48</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>1.630452699685473e-48</v>
+        <v>1.627989167051507e-48</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>1.625285656449214e-48</v>
+        <v>1.623197980417025e-48</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>1.615446774884726e-48</v>
+        <v>1.613834360633053e-48</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>1.600320579544357e-48</v>
+        <v>1.599261315885748e-48</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>1.579291594980459e-48</v>
+        <v>1.578841854361271e-48</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>1.551744345745382e-48</v>
+        <v>1.551938984245779e-48</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>1.517063356391476e-48</v>
+        <v>1.517915713725435e-48</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>1.474633639262765e-48</v>
+        <v>1.476135540486694e-48</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>1.424270996190158e-48</v>
+        <v>1.426394260659972e-48</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>1.367012316536426e-48</v>
+        <v>1.369713035097981e-48</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>1.304109354339528e-48</v>
+        <v>1.30732864195045e-48</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>1.236813863637838e-48</v>
+        <v>1.240477859367524e-48</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.166377840700175e-48</v>
+        <v>1.170397708268026e-48</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>1.094893423458791e-48</v>
+        <v>1.099167218014403e-48</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>1.027173871293585e-48</v>
+        <v>1.031592585701371e-48</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>9.685823629145512e-49</v>
+        <v>9.730311496649485e-49</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>9.244820770316142e-49</v>
+        <v>9.288402482410837e-49</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>9.002361496351764e-49</v>
+        <v>9.043771774483409e-49</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>8.983489511089784e-49</v>
+        <v>9.021673786535064e-49</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>9.107234916815941e-49</v>
+        <v>9.142347288416499e-49</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>9.268058768296569e-49</v>
+        <v>9.301693282885687e-49</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>9.362501395756237e-49</v>
+        <v>9.397632089841866e-49</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>9.341113142074717e-49</v>
+        <v>9.380536600546403e-49</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>9.212132843661136e-49</v>
+        <v>9.256804685238911e-49</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>8.986615309913578e-49</v>
+        <v>9.035568985304123e-49</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>8.675615350230138e-49</v>
+        <v>8.72596214212678e-49</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>8.290188699819878e-49</v>
+        <v>8.337117897206817e-49</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>7.847737528166447e-49</v>
+        <v>7.885711281770437e-49</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>7.387164113164641e-49</v>
+        <v>7.413965302435958e-49</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>6.951919242058795e-49</v>
+        <v>6.969507831820998e-49</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>6.584995950954559e-49</v>
+        <v>6.599464265747038e-49</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>6.298669905814317e-49</v>
+        <v>6.31724131660478e-49</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>6.055634183517007e-49</v>
+        <v>6.081818523586637e-49</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>5.814077749883037e-49</v>
+        <v>5.847231230004613e-49</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>5.533247361869507e-49</v>
+        <v>5.568706482105169e-49</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>5.19822448920702e-49</v>
+        <v>5.230576602172041e-49</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>4.82079047004044e-49</v>
+        <v>4.84725386914143e-49</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>4.413957502048041e-49</v>
+        <v>4.434537230467891e-49</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>3.989889411888827e-49</v>
+        <v>4.006777600150703e-49</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>3.557651140600179e-49</v>
+        <v>3.573036590748804e-49</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>3.125600264803199e-49</v>
+        <v>3.141168457053635e-49</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>2.702094361118988e-49</v>
+        <v>2.719027453856638e-49</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>2.295491006168653e-49</v>
+        <v>2.314467835949254e-49</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.914147776573296e-49</v>
+        <v>1.935343858122926e-49</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>1.56642224895402e-49</v>
+        <v>1.589509775169096e-49</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>1.260671999931929e-49</v>
+        <v>1.284819841879205e-49</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>1.005254606128346e-49</v>
+        <v>1.029128313044918e-49</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>8.083919827839997e-50</v>
+        <v>8.301643906651406e-50</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>6.688440566686677e-50</v>
+        <v>6.869352065563827e-50</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>5.698891412862634e-50</v>
+        <v>5.841769263572417e-50</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>4.93478404745421e-50</v>
+        <v>5.053928717968596e-50</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>4.283276686299782e-50</v>
+        <v>4.397095615991235e-50</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>3.739251176642531e-50</v>
+        <v>3.852081668232946e-50</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>3.305694209395609e-50</v>
+        <v>3.407812625605942e-50</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>2.974482888627448e-50</v>
+        <v>3.054138153447091e-50</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>2.732522014184275e-50</v>
+        <v>2.781321432344446e-50</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>2.566693082238839e-50</v>
+        <v>2.579627580905935e-50</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>2.463877588963891e-50</v>
+        <v>2.439321717739482e-50</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>2.41095703053218e-50</v>
+        <v>2.350668961453015e-50</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>2.394821269023025e-50</v>
+        <v>2.303939692698092e-50</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>2.405196208842196e-50</v>
+        <v>2.291188124918131e-50</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>2.438759822753249e-50</v>
+        <v>2.308841229816236e-50</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>2.493235821840703e-50</v>
+        <v>2.353983734549742e-50</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>2.566347917189082e-50</v>
+        <v>2.423700366275982e-50</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>2.655819819882909e-50</v>
+        <v>2.51507585215229e-50</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>2.759375241006705e-50</v>
+        <v>2.625194919335999e-50</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>2.874737891644994e-50</v>
+        <v>2.751142294984443e-50</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>2.999631482882298e-50</v>
+        <v>2.890002706254956e-50</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>3.131779725803139e-50</v>
+        <v>3.038860880304871e-50</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>3.268906331492038e-50</v>
+        <v>3.194801544291521e-50</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>3.408735011033519e-50</v>
+        <v>3.354909425372241e-50</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>3.548989475512105e-50</v>
+        <v>3.516269250704364e-50</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>3.687393436012317e-50</v>
+        <v>3.675965747445223e-50</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>3.821670603618678e-50</v>
+        <v>3.831083642752154e-50</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>3.949544689415711e-50</v>
+        <v>3.978707663782489e-50</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>4.068739404487937e-50</v>
+        <v>4.115922537693559e-50</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>4.176978459919878e-50</v>
+        <v>4.239812991642701e-50</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>4.271985566796059e-50</v>
+        <v>4.347463752787248e-50</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>4.351484436201002e-50</v>
+        <v>4.435959548284534e-50</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>4.413281763714098e-50</v>
+        <v>4.502501252959037e-50</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>4.456739820006131e-50</v>
+        <v>4.546466972673557e-50</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>4.482602413912512e-50</v>
+        <v>4.569168456860608e-50</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>4.491661377703186e-50</v>
+        <v>4.571984670037853e-50</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>4.484708543648121e-50</v>
+        <v>4.556294576722993e-50</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>4.462535744017213e-50</v>
+        <v>4.523477141433616e-50</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>4.425934811080498e-50</v>
+        <v>4.474911328687519e-50</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>4.375697577107784e-50</v>
+        <v>4.411976103002187e-50</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>4.312615874369209e-50</v>
+        <v>4.336050428895525e-50</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>4.237481535134554e-50</v>
+        <v>4.248513270885e-50</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>4.151086391673823e-50</v>
+        <v>4.150743593488349e-50</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>4.054222276256962e-50</v>
+        <v>4.044120361223239e-50</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>3.947681021153918e-50</v>
+        <v>3.93002253860734e-50</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>3.832254458634639e-50</v>
+        <v>3.809829090158317e-50</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>3.708734420969069e-50</v>
+        <v>3.68491898039384e-50</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>3.577912740427159e-50</v>
+        <v>3.556671173831578e-50</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>3.440581249278852e-50</v>
+        <v>3.426464634989196e-50</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>3.297531779794097e-50</v>
+        <v>3.295678328384365e-50</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>3.149556164242841e-50</v>
+        <v>3.165691218534751e-50</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>2.99744623489503e-50</v>
+        <v>3.037882269958023e-50</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>2.842390068054247e-50</v>
+        <v>2.913127175928922e-50</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>2.690583795536319e-50</v>
+        <v>2.785940876983116e-50</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.551656135165485e-50</v>
+        <v>2.646478571476542e-50</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>2.43530279315484e-50</v>
+        <v>2.484810375525769e-50</v>
       </c>
     </row>
   </sheetData>
